--- a/FMSV12_Japan/src/main/java/com/test/automation/FMSV12_Japan/data/TestData.xlsx
+++ b/FMSV12_Japan/src/main/java/com/test/automation/FMSV12_Japan/data/TestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="27">
   <si>
     <t>password</t>
   </si>
@@ -57,50 +57,64 @@
     <t>welcome</t>
   </si>
   <si>
-    <t>Password is required.</t>
-  </si>
-  <si>
     <t>expected_message</t>
   </si>
   <si>
-    <t>Username is required.</t>
-  </si>
-  <si>
     <t>//div[@class='alert alert-danger ']/span</t>
   </si>
   <si>
     <t>xpath</t>
   </si>
   <si>
-    <t>Not a valid login!Unauthorized user</t>
-  </si>
-  <si>
     <t>meiko</t>
   </si>
   <si>
     <t>hhh12312</t>
   </si>
   <si>
-    <t>Password is wrong</t>
-  </si>
-  <si>
     <t>//span[@for='password']</t>
   </si>
   <si>
     <t>//span[@for='username']</t>
+  </si>
+  <si>
+    <t>!@#@##!</t>
+  </si>
+  <si>
+    <t>abcd@123</t>
+  </si>
+  <si>
+    <t>!!@#!!@</t>
+  </si>
+  <si>
+    <t>パソワードは必須です。</t>
+  </si>
+  <si>
+    <t>ユーザー名は必須です。</t>
+  </si>
+  <si>
+    <t>有効なログインではありません！</t>
+  </si>
+  <si>
+    <t>パスワードが間違っています</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -117,7 +131,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -140,15 +154,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -487,15 +523,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
@@ -509,10 +543,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>2</v>
@@ -524,10 +558,10 @@
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>3</v>
@@ -539,10 +573,10 @@
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>3</v>
@@ -556,10 +590,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>3</v>
@@ -567,16 +601,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>3</v>
@@ -590,29 +624,59 @@
         <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="4">
+        <v>123213</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="C9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>3</v>
       </c>
     </row>

--- a/FMSV12_Japan/src/main/java/com/test/automation/FMSV12_Japan/data/TestData.xlsx
+++ b/FMSV12_Japan/src/main/java/com/test/automation/FMSV12_Japan/data/TestData.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="13890" windowHeight="6315" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="13185" windowHeight="2985" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="1" r:id="rId1"/>
     <sheet name="LoginData" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="ChangePasswordData" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="35">
   <si>
     <t>password</t>
   </si>
@@ -60,9 +60,6 @@
     <t>expected_message</t>
   </si>
   <si>
-    <t>//div[@class='alert alert-danger ']/span</t>
-  </si>
-  <si>
     <t>xpath</t>
   </si>
   <si>
@@ -97,6 +94,33 @@
   </si>
   <si>
     <t>パスワードが間違っています</t>
+  </si>
+  <si>
+    <t>/html/body/div[3]/form[1]/div[2]/span</t>
+  </si>
+  <si>
+    <t>Currentpassword</t>
+  </si>
+  <si>
+    <t>Newpassword</t>
+  </si>
+  <si>
+    <t>Confirmpassword</t>
+  </si>
+  <si>
+    <t>fdfgdg</t>
+  </si>
+  <si>
+    <t>Welcome123</t>
+  </si>
+  <si>
+    <t>Welcome1234</t>
+  </si>
+  <si>
+    <t>csdfsdfsd</t>
+  </si>
+  <si>
+    <t>gfhfghg</t>
   </si>
 </sst>
 </file>
@@ -525,7 +549,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -543,7 +569,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>13</v>
@@ -558,10 +584,10 @@
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>3</v>
@@ -573,10 +599,10 @@
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>3</v>
@@ -590,10 +616,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>3</v>
@@ -601,16 +627,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>3</v>
@@ -624,10 +650,10 @@
         <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>3</v>
@@ -635,33 +661,37 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="4">
         <v>123213</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
         <v>21</v>
       </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
       <c r="C8" s="2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -671,10 +701,10 @@
         <v>10</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>3</v>
@@ -688,12 +718,103 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="4">
+        <v>123213</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/FMSV12_Japan/src/main/java/com/test/automation/FMSV12_Japan/data/TestData.xlsx
+++ b/FMSV12_Japan/src/main/java/com/test/automation/FMSV12_Japan/data/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="13185" windowHeight="2985" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="13650" windowHeight="7875" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="ChangePasswordData" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:H24"/>
 </workbook>
 </file>
 
@@ -549,8 +550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -720,7 +721,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
